--- a/auto_delivery/Docs/开发计划.xlsx
+++ b/auto_delivery/Docs/开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zyy\homeWork\auto_delivery\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5AD5EA-94DB-4E99-AA42-BA3AD0808CA6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C1FE4F-5EE7-4C62-9D3C-04F21289730A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="61">
   <si>
     <t>模块</t>
   </si>
@@ -700,24 +700,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1152,10 +1166,10 @@
   <dimension ref="A1:P239"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1338,7 +1352,7 @@
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1542,7 +1556,7 @@
       <c r="A14" s="7">
         <v>0</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="46" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -1605,7 +1619,9 @@
       <c r="D16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F16" s="17" t="s">
         <v>14</v>
       </c>
@@ -1644,7 +1660,9 @@
         <v>43437</v>
       </c>
       <c r="I17" s="16"/>
-      <c r="J17" s="31"/>
+      <c r="J17" s="31">
+        <v>0.5</v>
+      </c>
       <c r="K17" s="16"/>
       <c r="L17" s="34"/>
       <c r="M17" s="24"/>
@@ -1661,7 +1679,9 @@
       <c r="D18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F18" s="17" t="s">
         <v>14</v>
       </c>
@@ -1689,7 +1709,9 @@
       <c r="D19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F19" s="17" t="s">
         <v>14</v>
       </c>
@@ -1738,7 +1760,7 @@
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -2014,7 +2036,7 @@
     </row>
     <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -2150,7 +2172,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="31"/>
       <c r="K35" s="18"/>
-      <c r="L35" s="47" t="s">
+      <c r="L35" s="44" t="s">
         <v>48</v>
       </c>
       <c r="M35" s="18"/>
@@ -2180,7 +2202,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="31"/>
       <c r="K36" s="18"/>
-      <c r="L36" s="47" t="s">
+      <c r="L36" s="44" t="s">
         <v>47</v>
       </c>
       <c r="M36" s="18"/>
@@ -2278,7 +2300,7 @@
     </row>
     <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
-      <c r="B40" s="46"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="20"/>
       <c r="D40" s="15" t="s">
         <v>12</v>
@@ -2300,7 +2322,7 @@
     </row>
     <row r="41" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="46" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="20" t="s">
@@ -2309,7 +2331,9 @@
       <c r="D41" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F41" s="17" t="s">
         <v>14</v>
       </c>
@@ -2365,7 +2389,9 @@
       <c r="D43" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F43" s="17" t="s">
         <v>14</v>
       </c>
@@ -2393,7 +2419,9 @@
       <c r="D44" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="16"/>
+      <c r="E44" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F44" s="17" t="s">
         <v>14</v>
       </c>
@@ -2414,7 +2442,7 @@
     </row>
     <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
-      <c r="B45" s="46"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="16"/>
@@ -2432,7 +2460,7 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="46" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="20"/>
@@ -2542,7 +2570,7 @@
     </row>
     <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
-      <c r="B52" s="46"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="16"/>
@@ -5927,106 +5955,111 @@
   </sheetData>
   <autoFilter ref="B2:K50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="7">
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B52"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B13"/>
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="B21:B30"/>
     <mergeCell ref="B31:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B52"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E53 E17:E20 E3:E10 E24:E30 E32:E36 E38:E40">
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13 E16">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43:E44">
+  <conditionalFormatting sqref="E46 E51">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46 E51">
+  <conditionalFormatting sqref="E47">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E48:E50">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E50">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E15">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E14">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E37">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>

--- a/auto_delivery/Docs/开发计划.xlsx
+++ b/auto_delivery/Docs/开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zyy\homeWork\auto_delivery\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C1FE4F-5EE7-4C62-9D3C-04F21289730A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D777D1A1-2341-4AF0-9E6C-3C7DCA18978D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
   <si>
     <t>模块</t>
   </si>
@@ -703,10 +703,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,14 +717,7 @@
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -1166,10 +1159,10 @@
   <dimension ref="A1:P239"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1248,7 +1241,7 @@
     </row>
     <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -1276,7 +1269,7 @@
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
-      <c r="B4" s="45"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
@@ -1302,7 +1295,7 @@
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
-      <c r="B5" s="45"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
@@ -1326,7 +1319,7 @@
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -1352,7 +1345,7 @@
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1384,7 +1377,7 @@
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="15" t="s">
         <v>26</v>
       </c>
@@ -1412,7 +1405,7 @@
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="B9" s="45"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="15" t="s">
         <v>57</v>
       </c>
@@ -1444,7 +1437,7 @@
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
@@ -1472,7 +1465,7 @@
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="B11" s="45"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="15" t="s">
         <v>42</v>
       </c>
@@ -1502,7 +1495,7 @@
     </row>
     <row r="12" spans="1:16" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="39"/>
-      <c r="B12" s="45"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="15" t="s">
         <v>41</v>
       </c>
@@ -1532,7 +1525,7 @@
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
-      <c r="B13" s="45"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
         <v>12</v>
@@ -1556,7 +1549,7 @@
       <c r="A14" s="7">
         <v>0</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -1588,7 +1581,7 @@
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="45"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="15" t="s">
         <v>59</v>
       </c>
@@ -1612,7 +1605,7 @@
     </row>
     <row r="16" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="15" t="s">
         <v>38</v>
       </c>
@@ -1642,14 +1635,16 @@
     </row>
     <row r="17" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F17" s="17" t="s">
         <v>14</v>
       </c>
@@ -1672,7 +1667,7 @@
     </row>
     <row r="18" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="15" t="s">
         <v>37</v>
       </c>
@@ -1702,7 +1697,7 @@
     </row>
     <row r="19" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="15" t="s">
         <v>32</v>
       </c>
@@ -1732,7 +1727,7 @@
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
-      <c r="B20" s="45"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="15" t="s">
         <v>33</v>
       </c>
@@ -1760,7 +1755,7 @@
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -1792,7 +1787,7 @@
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="B22" s="45"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="15" t="s">
         <v>34</v>
       </c>
@@ -1822,7 +1817,7 @@
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="15" t="s">
         <v>30</v>
       </c>
@@ -1852,7 +1847,7 @@
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="15" t="s">
         <v>31</v>
       </c>
@@ -1880,7 +1875,7 @@
     </row>
     <row r="25" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="45"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="15" t="s">
         <v>35</v>
       </c>
@@ -1908,7 +1903,7 @@
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="15" t="s">
         <v>36</v>
       </c>
@@ -1936,7 +1931,7 @@
     </row>
     <row r="27" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="B27" s="45"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="15" t="s">
         <v>39</v>
       </c>
@@ -1964,7 +1959,7 @@
     </row>
     <row r="28" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="15" t="s">
         <v>40</v>
       </c>
@@ -1992,7 +1987,7 @@
     </row>
     <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15" t="s">
         <v>12</v>
@@ -2014,7 +2009,7 @@
     </row>
     <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15" t="s">
         <v>12</v>
@@ -2036,7 +2031,7 @@
     </row>
     <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="45" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -2068,7 +2063,7 @@
     </row>
     <row r="32" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="45"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="15" t="s">
         <v>43</v>
       </c>
@@ -2096,7 +2091,7 @@
     </row>
     <row r="33" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="15" t="s">
         <v>44</v>
       </c>
@@ -2124,7 +2119,7 @@
     </row>
     <row r="34" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="19"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="15" t="s">
         <v>45</v>
       </c>
@@ -2152,7 +2147,7 @@
     </row>
     <row r="35" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A35" s="19"/>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="15" t="s">
         <v>46</v>
       </c>
@@ -2182,7 +2177,7 @@
     </row>
     <row r="36" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A36" s="19"/>
-      <c r="B36" s="45"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="15" t="s">
         <v>49</v>
       </c>
@@ -2212,7 +2207,7 @@
     </row>
     <row r="37" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="19"/>
-      <c r="B37" s="45"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="15" t="s">
         <v>50</v>
       </c>
@@ -2244,7 +2239,7 @@
     </row>
     <row r="38" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="19"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="15" t="s">
         <v>53</v>
       </c>
@@ -2272,7 +2267,7 @@
     </row>
     <row r="39" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="19"/>
-      <c r="B39" s="45"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="15" t="s">
         <v>54</v>
       </c>
@@ -2322,7 +2317,7 @@
     </row>
     <row r="41" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="20" t="s">
@@ -2354,7 +2349,7 @@
     </row>
     <row r="42" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
-      <c r="B42" s="45"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="15" t="s">
         <v>52</v>
       </c>
@@ -2382,7 +2377,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
-      <c r="B43" s="45"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="20" t="s">
         <v>56</v>
       </c>
@@ -2412,7 +2407,7 @@
     </row>
     <row r="44" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
-      <c r="B44" s="45"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="15" t="s">
         <v>55</v>
       </c>
@@ -2460,7 +2455,7 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="45" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="20"/>
@@ -2480,7 +2475,7 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
-      <c r="B47" s="45"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="20"/>
       <c r="D47" s="15"/>
       <c r="E47" s="16"/>
@@ -2498,7 +2493,7 @@
     </row>
     <row r="48" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
-      <c r="B48" s="45"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="20"/>
       <c r="D48" s="15"/>
       <c r="E48" s="16"/>
@@ -2516,7 +2511,7 @@
     </row>
     <row r="49" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
-      <c r="B49" s="45"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="20"/>
       <c r="D49" s="15"/>
       <c r="E49" s="16"/>
@@ -2534,7 +2529,7 @@
     </row>
     <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="20"/>
       <c r="D50" s="15"/>
       <c r="E50" s="16"/>
@@ -2552,7 +2547,7 @@
     </row>
     <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="16"/>
@@ -5965,27 +5960,27 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E53 E17:E20 E3:E10 E24:E30 E32:E36 E38:E40">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13 E16">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/auto_delivery/Docs/开发计划.xlsx
+++ b/auto_delivery/Docs/开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zyy\homeWork\auto_delivery\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D777D1A1-2341-4AF0-9E6C-3C7DCA18978D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4BC125-16A2-48BE-923F-ED2197EEAEEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
   <si>
     <t>模块</t>
   </si>
@@ -1162,7 +1162,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1854,7 +1854,9 @@
       <c r="D24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F24" s="17" t="s">
         <v>14</v>
       </c>
@@ -1966,7 +1968,9 @@
       <c r="D28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F28" s="17" t="s">
         <v>14</v>
       </c>
@@ -2070,7 +2074,9 @@
       <c r="D32" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F32" s="17" t="s">
         <v>14</v>
       </c>
@@ -2154,7 +2160,9 @@
       <c r="D35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F35" s="17" t="s">
         <v>14</v>
       </c>

--- a/auto_delivery/Docs/开发计划.xlsx
+++ b/auto_delivery/Docs/开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zyy\homeWork\auto_delivery\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4BC125-16A2-48BE-923F-ED2197EEAEEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C26AC6-EB44-4B66-9C06-DEF398378EEE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
   <si>
     <t>模块</t>
   </si>
@@ -1159,10 +1159,10 @@
   <dimension ref="A1:P239"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2104,7 +2104,9 @@
       <c r="D33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F33" s="17" t="s">
         <v>14</v>
       </c>
@@ -2132,7 +2134,9 @@
       <c r="D34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F34" s="17" t="s">
         <v>14</v>
       </c>
@@ -2364,7 +2368,9 @@
       <c r="D42" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F42" s="17" t="s">
         <v>14</v>
       </c>
